--- a/biology/Microbiologie/Strombidiidae/Strombidiidae.xlsx
+++ b/biology/Microbiologie/Strombidiidae/Strombidiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Strombidiidae, uniques représentants de l’ordre des Strombidiida, sont une famille de Ciliés de la classe des Oligotrichea.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Strombidium, dérivé du grec ancien στρομβοσ / strombos, « tourbillon ; toupie ; fuseau ; spirale », en référence à la forme de l'organisme.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre type Strombidium a un corps de forme ovoïde allongé ou piriforme, dont la partie postérieure est à moitié enfermé dans un arrangement de type lorica (loge), formé de plaquettes hexagonales polysaccharidiques étroitement ajustées. La moitié antérieure du corps ne peut pas se rétracter dans la lorique. Dans la région apicale, il y a une légère protubérance autour de laquelle s'enroule l'AZM[note 1] ouvert bien visible. 
-Les cils somatiques[note 2] sont absents. À l'intérieur, il existe une série de trichites obliques à fonction squelettique[1]. 
+Les cils somatiques[note 2] sont absents. À l'intérieur, il existe une série de trichites obliques à fonction squelettique. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces du genre Strombidium sont marines, mais il existe quelques représentants d'eau douce[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces du genre Strombidium sont marines, mais il existe quelques représentants d'eau douce.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 octobre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 octobre 2022) :
 Aciculoplites
 Apostrombidium Xu, Warren &amp; Song, 2009
 Buehringa Busch, 1921
@@ -653,9 +673,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Strombidiidae Fauré-Fremiet, 1970[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Strombidiidae Fauré-Fremiet, 1970.
 </t>
         </is>
       </c>
